--- a/banhang24/Template/ExportExcel/Teamplate_GoiDichVu_ChiTiet.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_GoiDichVu_ChiTiet.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ChiTietGoiDichVu" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ChiTietGoiDichVu!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ChiTietGoiDichVu!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Số lượng</t>
   </si>
@@ -25,18 +25,9 @@
     <t>Đơn giá</t>
   </si>
   <si>
-    <t>Giảm giá</t>
-  </si>
-  <si>
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t xml:space="preserve">Tổng tiền hàng: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng cộng: </t>
-  </si>
-  <si>
     <t>Mã dịch vụ</t>
   </si>
   <si>
@@ -46,13 +37,25 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <t>Lô hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng giảm giá hàng: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CHI TIẾT GIAO DỊCH GÓI DỊCH VỤ</t>
+    <t>Mã hóa đơn</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>THÔNG TIN CHI TIẾT GÓI DỊCH VỤ</t>
+  </si>
+  <si>
+    <t>Chiết khấu</t>
+  </si>
+  <si>
+    <t>Tổng tiền hàng</t>
+  </si>
+  <si>
+    <t>Khách đã trả</t>
+  </si>
+  <si>
+    <t>Còn nợ</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="[$-409]dd/mm/yyyy\ h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +102,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +166,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,12 +196,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,10 +205,38 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -509,355 +549,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="7"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="16">
-        <f>SUM(H29:H30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16">
-        <f>SUMPRODUCT(E4:E28,G4:G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="16">
-        <f>SUM($H$4:H27)</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.47" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
